--- a/XHX/Resources/MuBan/经销商导入模板.xlsx
+++ b/XHX/Resources/MuBan/经销商导入模板.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Shop" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="AB" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>经销商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,26 @@
   </si>
   <si>
     <t>shop01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经销商代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核组长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核开始日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
@@ -445,12 +465,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
